--- a/biology/Botanique/Moltkia_coerulea/Moltkia_coerulea.xlsx
+++ b/biology/Botanique/Moltkia_coerulea/Moltkia_coerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Moltkia bleuâtre (Moltkia coerulea) est une espèce de plantes de la famille des Boraginacées originaire d'Italie.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Moltkia coerulea forme un petit buisson, vivace, caduc et de petite taille (moins 40 cm).
 Les feuilles sont oblongues-lancéolées, un peu soyeuses, et portées par des tiges ascendantes anguleuses, ligneuses à leur base.
 Les fleurs, portées par des cymes scorpioïdes terminales, de couleur bleue, certaines virant au rose-mauve, sont tubulaires campanulées, au calice formé de cinq sépales deux à trois fois plus courts que la corolle, à cinq pétales sans pilosité, cinq étamines dépassant légèrement la corolle, un pistil très largement exsert et des carpelles à deux ovules (caractéristiques assez générales de la famille).
 Le fruit est formé de quatre graines en forme de noix, grandes, ovales et ridées.
-Cette espèce compte 2 × n = 14 chromosomes[1].
+Cette espèce compte 2 × n = 14 chromosomes.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'une assez vaste zone centrée sur le Caucase, de l'ouest de l'Anatolie au nord-est de l'Iran principalement, ainsi qu'au nord de la Syrie.
 Il s'agit d'une espèce de terrains ensoleillés, calcaires et secs.
@@ -578,7 +594,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a connu un usage ornemental en plante de jardin de rocaille fin du XIXe siècle. Elle est un peu diffusée en France.
 </t>
@@ -609,11 +627,13 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Ludwig von Willdenow décrit cette plante, collectée par Joseph Pitton de Tournefort avec l'indication : Symphytum orientale angustifolium flore coeruleo[2], sous le nom de Onosma coerulea, l'épithète spécifique faisant référence à la couleur bleue de la fleur[3]. Willdenow, comme Tournefort, a choisi des deux orthographes latines de l'adjectif « bleu sombre » - caeruleus, a, um et coeruleus, a, um - la deuxième. Les index et les auteurs se partagent entre les deux orthographes possibles de l'épithète spécifique : coerulea (IPNI, GRIN, Tropicos, Cuvier, M.G. Popov...) et caerulea (Tropicos, MNHN, I.M.Johnston...).
-Johann Georg Christian Lehmann la déplace en 1817 dans le genre Moltkia et en fait l'espèce type du genre parmi les deux premières espèces qu'il y rattache[4]. En 1821, il publie les gravures de ces deux espèces[5].
-En 1953, Ivan Muray Johnston confirme son classement dans le genre Moltkia et la place dans la section Eumoltkia (Viv.) I.M.Johnston [6]. Il suggère plusieurs synonymies possibles :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Ludwig von Willdenow décrit cette plante, collectée par Joseph Pitton de Tournefort avec l'indication : Symphytum orientale angustifolium flore coeruleo, sous le nom de Onosma coerulea, l'épithète spécifique faisant référence à la couleur bleue de la fleur. Willdenow, comme Tournefort, a choisi des deux orthographes latines de l'adjectif « bleu sombre » - caeruleus, a, um et coeruleus, a, um - la deuxième. Les index et les auteurs se partagent entre les deux orthographes possibles de l'épithète spécifique : coerulea (IPNI, GRIN, Tropicos, Cuvier, M.G. Popov...) et caerulea (Tropicos, MNHN, I.M.Johnston...).
+Johann Georg Christian Lehmann la déplace en 1817 dans le genre Moltkia et en fait l'espèce type du genre parmi les deux premières espèces qu'il y rattache. En 1821, il publie les gravures de ces deux espèces.
+En 1953, Ivan Muray Johnston confirme son classement dans le genre Moltkia et la place dans la section Eumoltkia (Viv.) I.M.Johnston . Il suggère plusieurs synonymies possibles :
 Moltkia punctata Lehm.
 Cynoglossum rugosum Sest. ex Roem. &amp; Schult.
 Lithospermum rugosum (Sest. ex Roem. &amp; Schult.) DC.
